--- a/week-2/Exercises/2-5-A-data-validation-exercises.xlsx
+++ b/week-2/Exercises/2-5-A-data-validation-exercises.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\data-analytics-lectures\week-2\Exercises\2-5-A-data-validation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\data-analytics-lectures\week-2\Exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EB1E62-05F3-438E-8B58-7408DC1DA477}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023A40AF-BE7A-4683-9EB2-874B08A6F981}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="VLOOKUP Explained" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="starbucks" sheetId="1" r:id="rId1"/>
+    <sheet name="staffing-model" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -298,23 +298,6 @@
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -348,6 +331,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -373,7 +365,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -381,7 +372,32 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -407,7 +423,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -433,7 +449,33 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -457,57 +499,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
+      <protection locked="1" hidden="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -523,7 +515,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Coffee" displayName="Coffee" ref="A1:D10" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Coffee" displayName="Coffee" ref="A1:D10" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
   <autoFilter ref="A1:D10" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -531,10 +523,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="CLASSIC FAVORITES" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tall" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Grande" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Venti" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="CLASSIC FAVORITES" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tall" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Grande" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Venti" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -551,34 +543,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -863,184 +855,184 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="3"/>
-    <col min="6" max="6" width="23.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="25.5703125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="10" style="22" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="22"/>
+    <col min="6" max="6" width="25.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="24">
         <v>2.95</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="24">
         <v>3.75</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="24">
         <v>4.1500000000000004</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="22" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="24">
         <v>2.95</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="24">
         <v>3.65</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="24">
         <v>4.1500000000000004</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="1">
         <f>INDEX(Coffee[[Tall]:[Venti]],MATCH(G1,Coffee[CLASSIC FAVORITES]),MATCH(G2,Coffee[[#Headers],[Tall]:[Venti]]))</f>
         <v>4.1500000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="24">
         <v>3.75</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="24">
         <v>3.95</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="24">
         <v>4.25</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="24">
         <v>3.25</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="24">
         <v>3.95</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="24">
         <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="24">
         <v>3.45</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="24">
         <v>4.1500000000000004</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="24">
         <v>4.55</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="24">
         <v>2</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="24">
         <v>2.4</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="24">
         <v>2.75</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="24">
         <v>3.95</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="24">
         <v>4.75</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="24">
         <v>5.15</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="24">
         <v>2.25</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="24">
         <v>2.5</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="24">
         <v>2.75</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="24">
         <v>1.75</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="24">
         <v>1.95</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="24">
         <v>2.0499999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$A$2:$A$10</formula1>
@@ -1061,376 +1053,373 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1823C6EE-4892-4F1F-993B-847A20C717FC}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="8.85546875" style="7"/>
-    <col min="10" max="10" width="13.28515625" style="7" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="7"/>
+    <col min="1" max="1" width="30.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="8.85546875" style="2"/>
+    <col min="10" max="10" width="13.28515625" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="19" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="16" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="13">
-        <f>D5</f>
+      <c r="B5" s="8">
+        <f t="shared" ref="B5:B10" si="0">D5</f>
         <v>10000</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="9">
         <v>8000</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="9">
         <v>10000</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="9">
         <v>12000</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="20">
-        <f>D6</f>
+      <c r="B6" s="15">
+        <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="14">
         <v>0.02</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="14">
         <v>0.04</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="14">
         <v>0.06</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="10">
-        <f>D7</f>
+      <c r="B7" s="5">
+        <f t="shared" si="0"/>
         <v>8000000</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="10">
         <v>9000000</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="13">
         <v>8000000</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="10">
         <v>7000000</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="17">
-        <f>D8</f>
+      <c r="B8" s="12">
+        <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="11">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="11">
         <v>0.03</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="11">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="10">
-        <f>D9</f>
+      <c r="B9" s="5">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="10">
         <v>75</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="10">
         <v>50</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="10">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="10">
-        <f>D10</f>
+      <c r="B10" s="5">
+        <f t="shared" si="0"/>
         <v>150000</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="10">
         <v>175000</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="10">
         <v>150000</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="10">
         <v>125000</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="9">
         <v>100000</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="8">
         <f>B14*(1+$B$6)</f>
         <v>104000</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="8">
         <f>C14*(1+$B$6)</f>
         <v>108160</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="8">
         <f>D14*(1+$B$6)</f>
         <v>112486.40000000001</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="8">
         <f>E14*(1+$B$6)</f>
         <v>116985.85600000001</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="7">
         <f>ROUNDUP(B14/$B$5,0)</f>
         <v>10</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="7">
         <f>ROUNDUP(C14/$B$5,0)</f>
         <v>11</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="7">
         <f>ROUNDUP(D14/$B$5,0)</f>
         <v>11</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="7">
         <f>ROUNDUP(E14/$B$5,0)</f>
         <v>12</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="7">
         <f>ROUNDUP(F14/$B$5,0)</f>
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="5">
         <f>B9</f>
         <v>50</v>
       </c>
-      <c r="C16" s="10">
-        <f>B16*(1+$B$8)</f>
+      <c r="C16" s="5">
+        <f t="shared" ref="C16:F17" si="1">B16*(1+$B$8)</f>
         <v>51.5</v>
       </c>
-      <c r="D16" s="10">
-        <f>C16*(1+$B$8)</f>
+      <c r="D16" s="5">
+        <f t="shared" si="1"/>
         <v>53.045000000000002</v>
       </c>
-      <c r="E16" s="10">
-        <f>D16*(1+$B$8)</f>
+      <c r="E16" s="5">
+        <f t="shared" si="1"/>
         <v>54.63635</v>
       </c>
-      <c r="F16" s="10">
-        <f>E16*(1+$B$8)</f>
+      <c r="F16" s="5">
+        <f t="shared" si="1"/>
         <v>56.275440500000002</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="5">
         <f>B10</f>
         <v>150000</v>
       </c>
-      <c r="C17" s="11">
-        <f>B17*(1+$B$8)</f>
+      <c r="C17" s="6">
+        <f t="shared" si="1"/>
         <v>154500</v>
       </c>
-      <c r="D17" s="11">
-        <f>C17*(1+$B$8)</f>
+      <c r="D17" s="6">
+        <f t="shared" si="1"/>
         <v>159135</v>
       </c>
-      <c r="E17" s="11">
-        <f>D17*(1+$B$8)</f>
+      <c r="E17" s="6">
+        <f t="shared" si="1"/>
         <v>163909.05000000002</v>
       </c>
-      <c r="F17" s="11">
-        <f>E17*(1+$B$8)</f>
+      <c r="F17" s="6">
+        <f t="shared" si="1"/>
         <v>168826.32150000002</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="5">
         <f>B7</f>
         <v>8000000</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="5">
         <f>B19*(1+$B$8)</f>
         <v>8240000</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="5">
         <f>C19*(1+$B$8)</f>
         <v>8487200</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="5">
         <f>D19*(1+$B$8)</f>
         <v>8741816</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="5">
         <f>E19*(1+$B$8)</f>
         <v>9004070.4800000004</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="5">
         <f>B14*B16</f>
         <v>5000000</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="5">
         <f>C14*C16</f>
         <v>5356000</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="5">
         <f>D14*D16</f>
         <v>5737347.2000000002</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="5">
         <f>E14*E16</f>
         <v>6145846.3206400005</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="5">
         <f>F14*F16</f>
         <v>6583430.5786695695</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="5">
         <f>B17*B15</f>
         <v>1500000</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="5">
         <f>C17*C15</f>
         <v>1699500</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="5">
         <f>D17*D15</f>
         <v>1750485</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="5">
         <f>E17*E15</f>
         <v>1966908.6</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="5">
         <f>F17*F15</f>
         <v>2025915.8580000002</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="3">
         <f>SUM(B19:B21)</f>
         <v>14500000</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="3">
         <f>SUM(C19:C21)</f>
         <v>15295500</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="3">
         <f>SUM(D19:D21)</f>
         <v>15975032.199999999</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="3">
         <f>SUM(E19:E21)</f>
         <v>16854570.920640003</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="3">
         <f>SUM(F19:F21)</f>
         <v>17613416.91666957</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/week-2/Exercises/2-5-A-data-validation-exercises.xlsx
+++ b/week-2/Exercises/2-5-A-data-validation-exercises.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\data-analytics-lectures\week-2\Exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023A40AF-BE7A-4683-9EB2-874B08A6F981}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C8B73D-18C3-4A79-AD49-9C23A01C9E85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25693" yWindow="-93" windowWidth="25786" windowHeight="14586" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="starbucks" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>CLASSIC FAVORITES</t>
   </si>
@@ -365,56 +367,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
       <fill>
         <patternFill patternType="none">
@@ -501,6 +453,56 @@
       </fill>
       <protection locked="1" hidden="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -515,7 +517,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Coffee" displayName="Coffee" ref="A1:D10" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Coffee" displayName="Coffee" ref="A1:D10" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A1:D10" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -523,10 +525,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="CLASSIC FAVORITES" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tall" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Grande" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Venti" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="CLASSIC FAVORITES" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tall" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Grande" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Venti" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -859,19 +861,19 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" style="22" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="22" customWidth="1"/>
+    <col min="1" max="1" width="25.59765625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="9.1328125" style="22" customWidth="1"/>
     <col min="3" max="3" width="10" style="22" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="22"/>
-    <col min="6" max="6" width="25.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.59765625" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1328125" style="22"/>
+    <col min="6" max="6" width="25.73046875" style="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="22"/>
+    <col min="8" max="16384" width="9.1328125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -887,11 +889,8 @@
       <c r="F1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
@@ -907,11 +906,8 @@
       <c r="F2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="23" t="s">
         <v>2</v>
       </c>
@@ -927,12 +923,9 @@
       <c r="F3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="1">
-        <f>INDEX(Coffee[[Tall]:[Venti]],MATCH(G1,Coffee[CLASSIC FAVORITES]),MATCH(G2,Coffee[[#Headers],[Tall]:[Venti]]))</f>
-        <v>4.1500000000000004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="23" t="s">
         <v>3</v>
       </c>
@@ -946,7 +939,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="23" t="s">
         <v>4</v>
       </c>
@@ -960,7 +953,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="23" t="s">
         <v>5</v>
       </c>
@@ -974,7 +967,7 @@
         <v>4.55</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="23" t="s">
         <v>6</v>
       </c>
@@ -988,7 +981,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="23" t="s">
         <v>7</v>
       </c>
@@ -1002,7 +995,7 @@
         <v>5.15</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="23" t="s">
         <v>8</v>
       </c>
@@ -1016,7 +1009,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="23" t="s">
         <v>9</v>
       </c>
@@ -1030,7 +1023,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <dataValidations count="2">
@@ -1055,20 +1048,20 @@
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="8.85546875" style="2"/>
-    <col min="10" max="10" width="13.28515625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="30.1328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.265625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.73046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.73046875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.73046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="8.86328125" style="2"/>
+    <col min="10" max="10" width="13.265625" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="8.86328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
@@ -1076,12 +1069,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
       <c r="C4" s="18" t="s">
         <v>36</v>
       </c>
@@ -1092,7 +1085,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
@@ -1110,7 +1103,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -1128,7 +1121,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7" s="2" t="s">
         <v>31</v>
       </c>
@@ -1146,7 +1139,7 @@
         <v>7000000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
@@ -1164,7 +1157,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -1182,7 +1175,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -1200,7 +1193,7 @@
         <v>125000</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
@@ -1220,7 +1213,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
@@ -1244,7 +1237,7 @@
         <v>116985.85600000001</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
@@ -1269,7 +1262,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -1294,7 +1287,7 @@
         <v>56.275440500000002</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -1319,7 +1312,7 @@
         <v>168826.32150000002</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -1344,7 +1337,7 @@
         <v>9004070.4800000004</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -1369,7 +1362,7 @@
         <v>6583430.5786695695</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
@@ -1394,7 +1387,7 @@
         <v>2025915.8580000002</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A22" s="4" t="s">
         <v>16</v>
       </c>
